--- a/data/long_razon/P29-Edad-long_razon.xlsx
+++ b/data/long_razon/P29-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-30,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-20,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-44,52; 45,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 42,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-54,51; 3,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 35,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,92; 10,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,87; 24,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-42,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,79; -9,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 64,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 81,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 71,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 5,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 54,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-41,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-60,99; -9,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,5; 46,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 14,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 30,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,37; -10,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 16,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 26,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 49,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 64,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 34,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 29,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 28,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-21,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-23,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-21,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 9,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 75,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 8,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 3,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 24,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 98,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,73; 135,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 84,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 44,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 71,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 55,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-33,9; -5,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 30,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 14,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 14,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,33; -0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 15,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P29-Edad-long_razon.xlsx
+++ b/data/long_razon/P29-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.2366106542061168</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.02901073027930068</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3015384338671616</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.5116899123230199</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2258517754798754</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.07614198740908544</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.04795405829920451</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.3907455568819844</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2312607392454427</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.05387648909352123</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1599754826055017</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.4602241262697998</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.5593165461459315</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3992581181388691</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6814212753182567</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7966915662005324</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5237399259505797</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3605463141964252</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3723257524401464</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.6581257816786247</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.4469433002420331</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2925034837372413</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.4300308963860662</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.6496781603441598</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.2638048431005898</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.6972895389135246</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.3887712679108856</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.05591576818220947</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.1455362415947375</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.3976418019036473</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.4374076688124759</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.100031180367628</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.1003254598448548</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.3036117754154103</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.2585458856128657</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>-0.1150417035694741</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.4535765262698702</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2188059085754764</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.4233719272116526</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3474293661120595</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1884897424216971</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.286834674859053</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4611627179986493</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.3953006816763415</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2389019541580655</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.2499150479569491</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.1745945749743136</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.373168853964929</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.6715130590940283</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1806630862996306</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.6959197760225404</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.8050237047091134</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2003019604004508</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1043486711289194</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.03885178752383667</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.6124934708476328</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.4723124812066207</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.05278421029323715</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.5355934466721637</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.6372198279666932</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.1403316792592219</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.9319521980741676</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.012232079073406</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5384111271227237</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8162679767107194</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.7263012261190847</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.345679585484324</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.05039917241673538</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.01624666627913207</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.6522032397873844</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.2013346544288527</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.01147085226394857</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.4255967327672497</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1111961718495653</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1389310233225935</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.4082996378055315</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1757510955406711</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.03499058254641232</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.3309147199955592</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.3614139204159281</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.3042684101049777</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.07307035162841936</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2360313817300843</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.3857199943300946</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6344922520799715</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3868438409744316</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4207172460579136</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.6475829869131626</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3966674349975685</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2840824430540775</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5333014175400271</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.5891900762561679</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.4698690081706163</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2648215748917842</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.4085637920777958</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.5597595751586278</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.1461440557389782</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.3801790205924775</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.2674559010180798</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.08048094165586994</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.1030236274201083</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2351005431734128</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.09686953889715995</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.06232016118026957</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.1118238564783711</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.1640759804171839</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.004659859041040766</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-0.1709351851619418</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.09453877951166834</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.0633642809786336</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.4450621116386104</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3431051418499938</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1730744628395776</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.03324968810273225</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.2781094967198038</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.3031053706323686</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.03513132352556846</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.04772427910937253</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.01226976644756213</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.3266719375630219</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.3474482569689027</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2140938854873288</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.001987053053843758</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5907068157249571</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1467554869189745</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1905707266335704</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.4729846580599098</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.5658574202628246</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1763579812855242</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1445821136952742</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.209792526500374</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.5075455883308515</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.2707713172046177</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3964184917182116</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.144069963364725</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.0479750236486446</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.5797163381237843</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.3328642267864839</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.04348515870274303</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.07762130795883779</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2871668774156158</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.2765956495754017</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.3339751522518805</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-0.05182194604662692</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.2387264150879265</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.2733928472376861</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1870641725693361</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.2392737993641817</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.2290323394078158</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.2075277805075773</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.08903618632181916</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>-0.4211615230834228</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.2345481255820231</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.0007147815094853327</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.06718226145851894</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.3478806168545632</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.4734821722501455</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.04720232713930428</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.4490858615299367</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.5465751228499413</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.48090221823545</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.4166964414161829</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.2708710005068161</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.6219575597156735</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.4028916935834944</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.1976343806849546</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.3090780184134145</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.5212247356027631</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.05466273619880348</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.8472320691615884</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.2128952080333594</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.2947875778164179</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.1212915843344628</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.09507125500348451</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.6670371148409475</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>-0.1795285147039486</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>-0.003963791329904231</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.2413690104261698</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.2230567665907523</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>-0.09609327023297171</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.2721106119019386</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.570334148572894</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.1053338242494529</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.360279779341577</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.1500898263227426</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.1251890305213827</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.1348097683268943</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.2253124551971122</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.198388178211012</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.2816804948086499</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.1237837250927043</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.2748694168658957</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.2383921979628864</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06870055856668825</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.4915928120380935</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.6426745206237375</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.2237287816573186</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.2175156229139183</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.4440750971375652</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.5386043372338487</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.1255087048081941</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.009715915405438754</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.3781882182717762</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.5586300868548002</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>1.009196616050492</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.342975075670159</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.538282026995648</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.1935763572996634</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.6954359384327953</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.5797900782259254</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.3985271235519016</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.3347991759961798</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.6119539195504876</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.671133873595309</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.2686297153520767</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.08543600969591487</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.2420907759068656</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1302475240245637</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1512809316502618</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.3788982873389987</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.03087104860755064</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.01441451716920896</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.1062563798005953</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.3437962947385929</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.1424631272184191</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.06803413202683972</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.1287382538380978</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>-0.3608925450733105</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.3775677214622228</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.04726833755254245</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.3131594456081277</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.5133363824874519</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.1576656730946197</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.1158361055168778</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.2494524610350702</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.4653548918740986</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.2329445987246086</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.03891924667210853</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.2456270378875235</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.4551720502818479</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.1009923618334218</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3094813237451784</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.0534560900119485</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-0.2048709434982774</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1286654883340686</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.1502692335738476</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.04209691297445637</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>-0.1908966976345762</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-0.0411209260543812</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.1746318495004296</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.004219392408136675</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>-0.2487267454187992</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
